--- a/DatabaseTables.xlsx
+++ b/DatabaseTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIKHIL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thang\Desktop\Project\project-14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B3BC59-3ADA-459B-8449-5D1AAA60725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147A7839-E1E7-4A8B-B502-F393E39430D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{769190C3-5984-41CC-B8BE-F6D47C9DEADE}"/>
+    <workbookView xWindow="60" yWindow="36" windowWidth="12120" windowHeight="11604" xr2:uid="{769190C3-5984-41CC-B8BE-F6D47C9DEADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="104">
   <si>
     <t>Address</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO</t>
   </si>
 </sst>
 </file>
@@ -482,17 +485,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDDD18E-7D49-44CF-BD93-1A2E3DA67353}">
   <dimension ref="B2:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="B93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,24 +846,24 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -871,94 +874,94 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -969,170 +972,170 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="32" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1143,234 +1146,234 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="D35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1381,122 +1384,122 @@
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="D59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="7" t="s">
+      <c r="D60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1507,94 +1510,94 @@
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="8" t="s">
+      <c r="D69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1605,164 +1608,164 @@
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="8" t="s">
+      <c r="D80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="9" t="s">
+      <c r="D81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="7" t="s">
+      <c r="D83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="7" t="s">
+      <c r="D85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="7" t="s">
+      <c r="D86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="7" t="s">
+      <c r="D87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="7" t="s">
+      <c r="D88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="7" t="s">
+      <c r="D89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
     </row>
     <row r="95" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1773,66 +1776,66 @@
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E97" s="9" t="s">
+      <c r="D97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E98" s="9" t="s">
+      <c r="D98" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="7" t="s">
+      <c r="D99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
     </row>
     <row r="103" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1843,58 +1846,58 @@
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="10" t="s">
+      <c r="D105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="9" t="s">
+      <c r="D106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="9" t="s">
+      <c r="D107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="7" t="s">
+      <c r="D108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>11</v>
       </c>
     </row>
